--- a/data/trans_camb/P16B18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Edad-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16B18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Edad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.878933098196702</v>
+        <v>-3.555289449177514</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.882957082089194</v>
+        <v>1.861843679165332</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.90096008635199</v>
+        <v>11.84005741738215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.86086021590713</v>
+        <v>14.61939627421092</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02923520376139635</v>
+        <v>-0.03696769526501172</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01919056130883189</v>
+        <v>0.01897164228693276</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1352117324171568</v>
+        <v>0.1346317714481122</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1885064102150468</v>
+        <v>0.1712316870089797</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.006899185387626</v>
+        <v>3.135462250837283</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.716330859778955</v>
+        <v>-5.684623626784297</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.70132153190232</v>
+        <v>16.49400892868131</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.70148404122898</v>
+        <v>10.95615165678054</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04274449639522588</v>
+        <v>0.03315551551368841</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05994419437463396</v>
+        <v>-0.06034901043105946</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2074434379802998</v>
+        <v>0.1988455496274248</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1394864425181742</v>
+        <v>0.1293213915502324</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04565784376149923</v>
+        <v>0.2880855728817847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7118785543607514</v>
+        <v>-0.2211969841329719</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.9483478362178</v>
+        <v>20.01337970068042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.22206223029161</v>
+        <v>20.15321383065723</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0007968073481195498</v>
+        <v>0.003543818436993075</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.005189232687944441</v>
+        <v>-0.0005884200678271954</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2541704216928548</v>
+        <v>0.2518571555065521</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2718864000049065</v>
+        <v>0.27096022847716</v>
       </c>
     </row>
     <row r="22">
@@ -848,7 +848,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>-28.5856072257832</v>
+        <v>-36.48883413835083</v>
       </c>
     </row>
     <row r="24">
@@ -886,7 +886,7 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-0.285856072257832</v>
+        <v>-0.3648883413835083</v>
       </c>
     </row>
     <row r="27">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.030035867110544</v>
+        <v>2.789137202985916</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.18392637953252</v>
+        <v>-0.8047290529406609</v>
       </c>
     </row>
     <row r="36">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.41912633442246</v>
+        <v>11.2566271078905</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.875416893746745</v>
+        <v>9.501640312600527</v>
       </c>
     </row>
     <row r="37">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.03203091363943743</v>
+        <v>0.02969446995021246</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01224515540507144</v>
+        <v>-0.007485365068241677</v>
       </c>
     </row>
     <row r="39">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1317199189379091</v>
+        <v>0.1292091098865709</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1010066260154654</v>
+        <v>0.108149825823928</v>
       </c>
     </row>
     <row r="40">
